--- a/data/trans_orig/IP11CS1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP11CS1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDEB5870-A049-4395-B207-96B273E154E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBCEC836-6303-413D-AFFD-4AF46086312F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{48563486-A45F-44B1-A174-815C3046C724}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F2B15683-5011-4C46-AA41-712397939906}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="552">
   <si>
     <t>Menores según consecuencia del accidente en 2007 (Tasa respuesta: 5,85%)</t>
   </si>
@@ -71,18 +71,75 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>No fue necesaria ninguna atención sanitaria</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>Consultar a un médico o enfermera</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>Acudir a un servicio de urgencias</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
     <t>Ser ingresado en un hospital o clínica</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>21,23%</t>
   </si>
   <si>
@@ -95,1588 +152,1549 @@
     <t>59,05%</t>
   </si>
   <si>
-    <t>Acudir a un servicio de urgencias</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>Consultar a un médico o enfermera</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>No fue necesaria ninguna atención sanitaria</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2012 (Tasa respuesta: 8,58%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2015 (Tasa respuesta: 4,42%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2012 (Tasa respuesta: 8,58%)</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
   </si>
   <si>
     <t>20,19%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2015 (Tasa respuesta: 4,42%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
   </si>
   <si>
     <t>93,39%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>59,88%</t>
+    <t>58,28%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>16,69%</t>
   </si>
   <si>
+    <t>50,53%</t>
+  </si>
+  <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1705,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1783,39 +1801,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1867,7 +1885,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1978,13 +1996,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1993,6 +2004,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2057,19 +2075,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483CA127-2054-49D3-B769-BF59E73B24A5}">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0B2EEC-DCD5-4DEE-946B-4C42B0F98A41}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2186,10 +2224,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>832</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2204,28 +2242,28 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>737</v>
+        <v>596</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1569</v>
+        <v>596</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -2237,64 +2275,64 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1333</v>
+        <v>806</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>1333</v>
+        <v>2966</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
@@ -2303,52 +2341,52 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>806</v>
+        <v>1333</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>2966</v>
+        <v>1333</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>832</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>20</v>
@@ -2357,28 +2395,28 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>596</v>
+        <v>737</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>596</v>
+        <v>1569</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>36</v>
@@ -2443,49 +2481,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>2143</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>2801</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>4944</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,148 +2532,148 @@
         <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>5448</v>
+        <v>2659</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>6614</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>12063</v>
+        <v>2659</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>2659</v>
+        <v>5448</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>6614</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>2659</v>
+        <v>12063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>2143</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>2801</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>4944</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>65</v>
@@ -2700,49 +2738,49 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>593</v>
+        <v>2514</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>2847</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>593</v>
+        <v>5360</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,46 +2789,46 @@
         <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>10596</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H15" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>3021</v>
+        <v>1178</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M15" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>13617</v>
+        <v>1178</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>80</v>
@@ -2799,100 +2837,100 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>10596</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>1178</v>
+        <v>3021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>1178</v>
+        <v>13617</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>2514</v>
+        <v>593</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>2847</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>5360</v>
+        <v>593</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>94</v>
@@ -2957,49 +2995,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>488</v>
+        <v>1404</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>97</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>488</v>
+        <v>4104</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,148 +3046,148 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>6277</v>
+        <v>726</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>3632</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>9909</v>
+        <v>726</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>726</v>
+        <v>6277</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>111</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>3632</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N21" s="7">
-        <v>726</v>
+        <v>9909</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1404</v>
+        <v>488</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="7">
-        <v>4</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2700</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>4104</v>
+        <v>488</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>121</v>
@@ -3214,49 +3252,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>644</v>
+        <v>1392</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" s="7">
-        <v>644</v>
+        <v>2185</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,151 +3303,151 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>7304</v>
+        <v>1345</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>6808</v>
+        <v>1438</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>14112</v>
+        <v>2783</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D26" s="7">
-        <v>1345</v>
+        <v>7304</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I26" s="7">
-        <v>1438</v>
+        <v>6808</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="M26" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N26" s="7">
-        <v>2783</v>
+        <v>14112</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>1392</v>
+        <v>644</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>793</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="M27" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>2185</v>
+        <v>644</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>147</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,40 +3509,40 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D29" s="7">
-        <v>2557</v>
+        <v>7452</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>15</v>
+      </c>
+      <c r="I29" s="7">
+        <v>9737</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
-        <v>737</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>154</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="N29" s="7">
-        <v>3294</v>
+        <v>17189</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>155</v>
@@ -3522,10 +3560,10 @@
         <v>18</v>
       </c>
       <c r="C30" s="7">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>29626</v>
+        <v>6890</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>158</v>
@@ -3537,10 +3575,10 @@
         <v>160</v>
       </c>
       <c r="H30" s="7">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7">
-        <v>21408</v>
+        <v>3422</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>161</v>
@@ -3552,10 +3590,10 @@
         <v>163</v>
       </c>
       <c r="M30" s="7">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="N30" s="7">
-        <v>51034</v>
+        <v>10312</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>164</v>
@@ -3570,13 +3608,13 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="7">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D31" s="7">
-        <v>6890</v>
+        <v>29626</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>167</v>
@@ -3588,10 +3626,10 @@
         <v>169</v>
       </c>
       <c r="H31" s="7">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I31" s="7">
-        <v>3422</v>
+        <v>21408</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>170</v>
@@ -3603,10 +3641,10 @@
         <v>172</v>
       </c>
       <c r="M31" s="7">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="N31" s="7">
-        <v>10312</v>
+        <v>51034</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>173</v>
@@ -3621,13 +3659,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7">
-        <v>7452</v>
+        <v>2557</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>176</v>
@@ -3639,34 +3677,34 @@
         <v>178</v>
       </c>
       <c r="H32" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>9737</v>
+        <v>737</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>5</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3294</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M32" s="7">
-        <v>26</v>
-      </c>
-      <c r="N32" s="7">
-        <v>17189</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,6 +3756,11 @@
       </c>
       <c r="Q33" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3738,8 +3781,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EDF4CC-43DC-42AE-A9F9-1479F9BE4BFC}">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806BEABA-9084-4CDA-B97B-DE02422BAF4B}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3755,7 +3798,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3856,47 +3899,47 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,16 +3948,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2868</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
@@ -3924,25 +3967,25 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2868</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>13</v>
@@ -3951,19 +3994,19 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>2868</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -3973,25 +4016,25 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M6" s="7">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2868</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -4000,50 +4043,50 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4114,13 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4103,49 +4146,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4139</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
-        <v>1458</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
       <c r="I9" s="7">
-        <v>702</v>
+        <v>1414</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>2160</v>
+        <v>5552</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,142 +4197,142 @@
         <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>5552</v>
+        <v>1353</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>6260</v>
+        <v>697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>202</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>11812</v>
+        <v>2050</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>1353</v>
+        <v>5552</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>207</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>697</v>
+        <v>6260</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N11" s="7">
-        <v>2050</v>
+        <v>11812</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>4139</v>
+        <v>1458</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>215</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>1414</v>
+        <v>702</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>216</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>217</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>5552</v>
+        <v>2160</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>218</v>
@@ -4360,49 +4403,49 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>675</v>
+        <v>3367</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>1764</v>
+        <v>7752</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>2439</v>
+        <v>11119</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,91 +4454,91 @@
         <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>12261</v>
+        <v>3191</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H15" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>11306</v>
+        <v>609</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>234</v>
       </c>
       <c r="M15" s="7">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="N15" s="7">
-        <v>23568</v>
+        <v>3800</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>235</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>3191</v>
+        <v>12261</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>17</v>
+      </c>
+      <c r="I16" s="7">
+        <v>11306</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>609</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>242</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N16" s="7">
-        <v>3800</v>
+        <v>23568</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>243</v>
@@ -4510,52 +4553,52 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>3367</v>
+        <v>675</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1764</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H17" s="7">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7752</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2439</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="M17" s="7">
-        <v>16</v>
-      </c>
-      <c r="N17" s="7">
-        <v>11119</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,49 +4660,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>1300</v>
+        <v>6190</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>256</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>627</v>
+        <v>3690</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>1927</v>
+        <v>9880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,40 +4711,40 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>8483</v>
+        <v>2168</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>3250</v>
+        <v>930</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>267</v>
       </c>
       <c r="M20" s="7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>11734</v>
+        <v>3098</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>268</v>
@@ -4716,94 +4759,94 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D21" s="7">
-        <v>2168</v>
+        <v>8483</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>271</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21" s="7">
-        <v>930</v>
+        <v>3250</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M21" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N21" s="7">
-        <v>3098</v>
+        <v>11734</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>6190</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>3690</v>
+        <v>627</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>283</v>
       </c>
       <c r="M22" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>9880</v>
+        <v>1927</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>284</v>
@@ -4874,49 +4917,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>1255</v>
+        <v>4862</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>52</v>
+        <v>287</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>8124</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N24" s="7">
-        <v>1255</v>
+        <v>12986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,151 +4968,151 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>12607</v>
+        <v>647</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>4585</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>17192</v>
+        <v>647</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D26" s="7">
-        <v>647</v>
+        <v>12607</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>4585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N26" s="7">
-        <v>647</v>
+        <v>17192</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>4862</v>
+        <v>1255</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H27" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>8124</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M27" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>12986</v>
+        <v>1255</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,49 +5174,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D29" s="7">
-        <v>5689</v>
+        <v>18558</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I29" s="7">
-        <v>3093</v>
+        <v>20980</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="N29" s="7">
-        <v>8782</v>
+        <v>39538</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,151 +5225,151 @@
         <v>18</v>
       </c>
       <c r="C30" s="7">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>41772</v>
+        <v>7359</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H30" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="I30" s="7">
-        <v>25402</v>
+        <v>2236</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M30" s="7">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="N30" s="7">
-        <v>67174</v>
+        <v>9595</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="7">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D31" s="7">
-        <v>7359</v>
+        <v>41772</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>33</v>
+        <v>334</v>
       </c>
       <c r="H31" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I31" s="7">
-        <v>2236</v>
+        <v>25402</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M31" s="7">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="N31" s="7">
-        <v>9595</v>
+        <v>67174</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D32" s="7">
-        <v>18558</v>
+        <v>5689</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H32" s="7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I32" s="7">
-        <v>20980</v>
+        <v>3093</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M32" s="7">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="N32" s="7">
-        <v>39538</v>
+        <v>8782</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,6 +5421,11 @@
       </c>
       <c r="Q33" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5398,8 +5446,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4548A834-FE1E-4DA9-9977-9C7B0C08BFDD}">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EFF3A9-5C7C-47C8-B69D-A8BEB484B9E2}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5415,7 +5463,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5516,19 +5564,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1047</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5537,28 +5585,28 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>1047</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>348</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,148 +5618,148 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>563</v>
+        <v>977</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="L5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="7">
-        <v>1099</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
       <c r="N5" s="7">
-        <v>1662</v>
+        <v>977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>977</v>
+        <v>563</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1099</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>977</v>
+        <v>1662</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,49 +5821,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>98</v>
+        <v>359</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>1262</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>1262</v>
+        <v>817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,151 +5872,151 @@
         <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>6577</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4634</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>11212</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>6577</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>4634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>11212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>367</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>368</v>
+        <v>106</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1262</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>371</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>817</v>
+        <v>1262</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,49 +6078,49 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>626</v>
+        <v>1962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>626</v>
+        <v>1962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,121 +6129,121 @@
         <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>8494</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>375</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>376</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>377</v>
+        <v>298</v>
       </c>
       <c r="H15" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>8955</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>378</v>
+        <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>17449</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>381</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>8494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>19</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>8955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>19</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>17449</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>19</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1962</v>
+        <v>626</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6204,28 +6252,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1962</v>
+        <v>626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,49 +6335,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>12</v>
+        <v>391</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>479</v>
+        <v>634</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,97 +6386,97 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>6625</v>
+        <v>634</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="7">
-        <v>7</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3986</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>634</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20" s="7">
-        <v>17</v>
-      </c>
-      <c r="N20" s="7">
-        <v>10610</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>396</v>
-      </c>
       <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>634</v>
+        <v>6625</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3986</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="7">
+        <v>17</v>
+      </c>
+      <c r="N21" s="7">
+        <v>10610</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>634</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>403</v>
@@ -6437,52 +6485,52 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>399</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>479</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>634</v>
+        <v>479</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,49 +6592,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>2897</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>409</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>411</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>3635</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>12</v>
+        <v>412</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>19</v>
+        <v>413</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>407</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,28 +6643,28 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>8133</v>
+        <v>739</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>409</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>2216</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>411</v>
+        <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
@@ -6625,100 +6673,100 @@
         <v>13</v>
       </c>
       <c r="M25" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>10349</v>
+        <v>739</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>413</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D26" s="7">
-        <v>739</v>
+        <v>8133</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>419</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>2216</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>12</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N26" s="7">
-        <v>739</v>
+        <v>10349</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>423</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
-        <v>2897</v>
+        <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>419</v>
+        <v>11</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>420</v>
+        <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>738</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>422</v>
+        <v>11</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>12</v>
@@ -6727,19 +6775,19 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>3635</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>423</v>
+        <v>11</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,49 +6849,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>1673</v>
+        <v>6309</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>239</v>
+        <v>427</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>1740</v>
+        <v>738</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>426</v>
+        <v>219</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>427</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N29" s="7">
-        <v>3413</v>
+        <v>7048</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,40 +6900,40 @@
         <v>18</v>
       </c>
       <c r="C30" s="7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>30392</v>
+        <v>2350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H30" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>20890</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>435</v>
+        <v>11</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>437</v>
       </c>
       <c r="M30" s="7">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="N30" s="7">
-        <v>51282</v>
+        <v>2350</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>438</v>
@@ -6900,13 +6948,13 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D31" s="7">
-        <v>2350</v>
+        <v>30392</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>441</v>
@@ -6915,88 +6963,88 @@
         <v>442</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>443</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>20890</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>12</v>
+        <v>444</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>19</v>
+        <v>445</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M31" s="7">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="N31" s="7">
-        <v>2350</v>
+        <v>51282</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>6309</v>
+        <v>1673</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>426</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>738</v>
+        <v>1740</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>12</v>
+        <v>453</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M32" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>7048</v>
+        <v>3413</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,6 +7096,11 @@
       </c>
       <c r="Q33" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -7068,8 +7121,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148EF4C4-4118-4EF2-9882-77C9EC4DE127}">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACB75CB-8D90-42EA-B94C-BD9D772D0522}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7085,7 +7138,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7190,13 +7243,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7205,13 +7258,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7220,13 +7273,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7239,111 +7292,111 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7352,13 +7405,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -7367,13 +7420,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,13 +7439,13 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7433,49 +7486,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>455</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>456</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,151 +7537,151 @@
         <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1655</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>460</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>461</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2504</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>4159</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>464</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>465</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>463</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>464</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>2504</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>465</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>466</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>457</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>4159</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>469</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>470</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>401</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>656</v>
+        <v>590</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,43 +7749,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>597</v>
+        <v>894</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>597</v>
+        <v>894</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7741,106 +7794,106 @@
         <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>4133</v>
+        <v>1403</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>473</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>478</v>
       </c>
       <c r="H15" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>3183</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>474</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>475</v>
+        <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="M15" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>7316</v>
+        <v>1403</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>477</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>478</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>1403</v>
+        <v>4133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>481</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>3183</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>482</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>19</v>
+        <v>483</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>1403</v>
+        <v>7316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>485</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -7849,43 +7902,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>894</v>
+        <v>597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>894</v>
+        <v>597</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>489</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7953,43 +8006,43 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1070</v>
+        <v>800</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>393</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1070</v>
+        <v>800</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>487</v>
+        <v>434</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7998,106 +8051,106 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>6550</v>
+        <v>906</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>490</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>13</v>
+        <v>494</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>3695</v>
+        <v>847</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>492</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M20" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>10245</v>
+        <v>1753</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>906</v>
+        <v>6550</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>497</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>847</v>
+        <v>3695</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>362</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="M21" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N21" s="7">
-        <v>1753</v>
+        <v>10245</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>504</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -8106,43 +8159,43 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>800</v>
+        <v>1070</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>800</v>
+        <v>1070</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8207,46 +8260,46 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>515</v>
+        <v>688</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>515</v>
+        <v>688</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8255,151 +8308,151 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>5970</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>509</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>510</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2550</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="7">
-        <v>8520</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>513</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>5970</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2550</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="7">
         <v>12</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="N26" s="7">
+        <v>8520</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>688</v>
+        <v>515</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>688</v>
+        <v>515</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>516</v>
+        <v>324</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8461,49 +8514,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>1105</v>
+        <v>688</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>1667</v>
+        <v>2350</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>524</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>2772</v>
+        <v>3038</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>522</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8512,151 +8565,151 @@
         <v>18</v>
       </c>
       <c r="C30" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>18308</v>
+        <v>2309</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>526</v>
+        <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H30" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>11932</v>
+        <v>1252</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>529</v>
+        <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M30" s="7">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="N30" s="7">
-        <v>30240</v>
+        <v>3561</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D31" s="7">
-        <v>2309</v>
+        <v>18308</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>12</v>
+        <v>537</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H31" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I31" s="7">
-        <v>1252</v>
+        <v>11932</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>12</v>
+        <v>540</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>16</v>
+        <v>541</v>
       </c>
       <c r="M31" s="7">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="N31" s="7">
-        <v>3561</v>
+        <v>30240</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>449</v>
+        <v>543</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>688</v>
+        <v>1105</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>2350</v>
+        <v>1667</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>541</v>
+        <v>161</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="M32" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>3038</v>
+        <v>2772</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>335</v>
+        <v>549</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8708,6 +8761,11 @@
       </c>
       <c r="Q33" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP11CS1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP11CS1-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBCEC836-6303-413D-AFFD-4AF46086312F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8220E1AA-23FC-4462-9C9E-84A6DDB93A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F2B15683-5011-4C46-AA41-712397939906}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B07260A2-3F80-4426-BD5C-B7BE4469FBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="548">
   <si>
     <t>Menores según consecuencia del accidente en 2007 (Tasa respuesta: 5,85%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No fue necesaria ninguna atención sanitaria</t>
@@ -86,13 +86,13 @@
     <t>17,17%</t>
   </si>
   <si>
-    <t>78,31%</t>
+    <t>76,39%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>43,97%</t>
+    <t>50,18%</t>
   </si>
   <si>
     <t>Consultar a un médico o enfermera</t>
@@ -101,22 +101,25 @@
     <t>72,19%</t>
   </si>
   <si>
+    <t>17,48%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>84,23%</t>
+    <t>84,39%</t>
   </si>
   <si>
     <t>45,88%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>Acudir a un servicio de urgencias</t>
@@ -125,13 +128,13 @@
     <t>38,4%</t>
   </si>
   <si>
-    <t>82,49%</t>
+    <t>81,73%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>59,41%</t>
+    <t>60,21%</t>
   </si>
   <si>
     <t>Ser ingresado en un hospital o clínica</t>
@@ -140,1561 +143,1546 @@
     <t>27,81%</t>
   </si>
   <si>
+    <t>82,52%</t>
+  </si>
+  <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>75,03%</t>
+    <t>83,18%</t>
   </si>
   <si>
     <t>24,28%</t>
   </si>
   <si>
-    <t>59,05%</t>
+    <t>61,09%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
   </si>
   <si>
     <t>29,75%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
   </si>
   <si>
     <t>25,14%</t>
   </si>
   <si>
-    <t>10,37%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2012 (Tasa respuesta: 8,58%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2016 (Tasa respuesta: 4,42%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>43,52%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2012 (Tasa respuesta: 8,58%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2015 (Tasa respuesta: 4,42%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
+    <t>23,2%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>15,92%</t>
+    <t>16,74%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>28,93%</t>
+    <t>28,44%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>30,22%</t>
+    <t>28,75%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>25,95%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
 </sst>
 </file>
@@ -2106,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0B2EEC-DCD5-4DEE-946B-4C42B0F98A41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCE7CFC-2436-47BD-9AFC-4379D944FCE8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2284,10 +2272,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2296,13 +2284,13 @@
         <v>806</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2311,19 +2299,19 @@
         <v>2966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2347,13 +2335,13 @@
         <v>1333</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -2362,19 +2350,19 @@
         <v>1333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -2383,13 +2371,13 @@
         <v>832</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2398,13 +2386,13 @@
         <v>737</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2413,13 +2401,13 @@
         <v>1569</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2422,13 @@
         <v>2992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -2449,13 +2437,13 @@
         <v>3472</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -2464,18 +2452,18 @@
         <v>6464</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2487,13 +2475,13 @@
         <v>2143</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2502,13 +2490,13 @@
         <v>2801</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -2517,13 +2505,13 @@
         <v>4944</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2526,13 @@
         <v>2659</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2559,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2568,19 +2556,19 @@
         <v>2659</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7">
         <v>8</v>
@@ -2589,13 +2577,13 @@
         <v>5448</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -2604,13 +2592,13 @@
         <v>6614</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -2619,19 +2607,19 @@
         <v>12063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -2646,7 +2634,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2661,7 +2649,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2676,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2679,13 @@
         <v>10250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2706,13 +2694,13 @@
         <v>9415</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -2721,18 +2709,18 @@
         <v>19666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2744,13 +2732,13 @@
         <v>2514</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2759,13 +2747,13 @@
         <v>2847</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2774,13 +2762,13 @@
         <v>5360</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2789,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2810,13 +2798,13 @@
         <v>1178</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -2825,19 +2813,19 @@
         <v>1178</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7">
         <v>16</v>
@@ -2846,13 +2834,13 @@
         <v>10596</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2861,13 +2849,13 @@
         <v>3021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -2876,19 +2864,19 @@
         <v>13617</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2897,13 +2885,13 @@
         <v>593</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2918,7 +2906,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2927,13 +2915,13 @@
         <v>593</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2936,13 @@
         <v>13703</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -2963,13 +2951,13 @@
         <v>7045</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -2978,18 +2966,18 @@
         <v>20748</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3001,13 +2989,13 @@
         <v>1404</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3016,13 +3004,13 @@
         <v>2700</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3031,13 +3019,13 @@
         <v>4104</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3040,13 @@
         <v>726</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3073,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3082,19 +3070,19 @@
         <v>726</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
         <v>10</v>
@@ -3103,13 +3091,13 @@
         <v>6277</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -3118,13 +3106,13 @@
         <v>3632</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -3133,19 +3121,19 @@
         <v>9909</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -3154,13 +3142,13 @@
         <v>488</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3175,7 +3163,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3184,13 +3172,13 @@
         <v>488</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3193,13 @@
         <v>8895</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -3220,13 +3208,13 @@
         <v>6332</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -3235,18 +3223,18 @@
         <v>15227</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3258,13 +3246,13 @@
         <v>1392</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3273,13 +3261,13 @@
         <v>793</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -3288,13 +3276,13 @@
         <v>2185</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3297,13 @@
         <v>1345</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3324,13 +3312,13 @@
         <v>1438</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -3339,19 +3327,19 @@
         <v>2783</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
         <v>11</v>
@@ -3360,13 +3348,13 @@
         <v>7304</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -3375,13 +3363,13 @@
         <v>6808</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -3390,19 +3378,19 @@
         <v>14112</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -3411,13 +3399,13 @@
         <v>644</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3432,7 +3420,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -3441,13 +3429,13 @@
         <v>644</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3450,13 @@
         <v>10685</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -3477,13 +3465,13 @@
         <v>9039</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -3492,13 +3480,13 @@
         <v>19724</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3503,13 @@
         <v>7452</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -3530,13 +3518,13 @@
         <v>9737</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -3545,13 +3533,13 @@
         <v>17189</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3554,13 @@
         <v>6890</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -3581,13 +3569,13 @@
         <v>3422</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -3596,19 +3584,19 @@
         <v>10312</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7">
         <v>45</v>
@@ -3617,13 +3605,13 @@
         <v>29626</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="H31" s="7">
         <v>32</v>
@@ -3632,13 +3620,13 @@
         <v>21408</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M31" s="7">
         <v>77</v>
@@ -3647,19 +3635,19 @@
         <v>51034</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
         <v>4</v>
@@ -3668,13 +3656,13 @@
         <v>2557</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3683,13 +3671,13 @@
         <v>737</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -3698,13 +3686,13 @@
         <v>3294</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3707,13 @@
         <v>46525</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H33" s="7">
         <v>53</v>
@@ -3734,13 +3722,13 @@
         <v>35304</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M33" s="7">
         <v>123</v>
@@ -3749,18 +3737,18 @@
         <v>81829</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +3769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806BEABA-9084-4CDA-B97B-DE02422BAF4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D48E9E-8F04-4F9E-8685-FEC484AE004A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3798,7 +3786,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3918,13 +3906,13 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3967,13 +3955,13 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3994,7 +3982,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -4003,26 +3991,26 @@
         <v>2868</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -4031,19 +4019,19 @@
         <v>2868</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -4058,20 +4046,20 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4086,7 +4074,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,26 +4089,26 @@
         <v>3869</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4129,18 +4117,18 @@
         <v>3869</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4152,13 +4140,13 @@
         <v>4139</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -4167,28 +4155,28 @@
         <v>1414</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>5552</v>
+        <v>5553</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4191,13 @@
         <v>1353</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4218,13 +4206,13 @@
         <v>697</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4233,10 +4221,10 @@
         <v>2050</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>204</v>
@@ -4245,7 +4233,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7">
         <v>8</v>
@@ -4296,7 +4284,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -4356,13 +4344,13 @@
         <v>12502</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4371,33 +4359,33 @@
         <v>9073</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>21574</v>
+        <v>21575</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4493,7 +4481,7 @@
         <v>235</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>236</v>
@@ -4502,7 +4490,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7">
         <v>18</v>
@@ -4553,7 +4541,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -4613,13 +4601,13 @@
         <v>19495</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -4628,13 +4616,13 @@
         <v>21431</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -4643,18 +4631,18 @@
         <v>40926</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4759,7 +4747,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
         <v>13</v>
@@ -4783,13 +4771,13 @@
         <v>3250</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -4798,19 +4786,19 @@
         <v>11734</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
@@ -4819,13 +4807,13 @@
         <v>1300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4834,13 +4822,13 @@
         <v>627</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -4849,13 +4837,13 @@
         <v>1927</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>284</v>
+        <v>167</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4858,13 @@
         <v>18141</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -4885,13 +4873,13 @@
         <v>8498</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>42</v>
@@ -4900,18 +4888,18 @@
         <v>26639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4923,13 +4911,13 @@
         <v>4862</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -4938,13 +4926,13 @@
         <v>8124</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -4953,13 +4941,13 @@
         <v>12986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4962,13 @@
         <v>647</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4995,7 +4983,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -5004,19 +4992,19 @@
         <v>647</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
         <v>17</v>
@@ -5025,13 +5013,13 @@
         <v>12607</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -5040,13 +5028,13 @@
         <v>4585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -5055,19 +5043,19 @@
         <v>17192</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -5076,13 +5064,13 @@
         <v>1255</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -5097,7 +5085,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -5106,13 +5094,13 @@
         <v>1255</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5115,13 @@
         <v>19371</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -5142,13 +5130,13 @@
         <v>12709</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -5157,13 +5145,13 @@
         <v>32080</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5168,13 @@
         <v>18558</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -5195,13 +5183,13 @@
         <v>20980</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>58</v>
@@ -5210,13 +5198,13 @@
         <v>39538</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5219,13 @@
         <v>7359</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -5246,13 +5234,13 @@
         <v>2236</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -5261,19 +5249,19 @@
         <v>9595</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7">
         <v>59</v>
@@ -5282,13 +5270,13 @@
         <v>41772</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H31" s="7">
         <v>37</v>
@@ -5297,13 +5285,13 @@
         <v>25402</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M31" s="7">
         <v>96</v>
@@ -5312,19 +5300,19 @@
         <v>67174</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
         <v>7</v>
@@ -5333,13 +5321,13 @@
         <v>5689</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -5348,13 +5336,13 @@
         <v>3093</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -5363,13 +5351,13 @@
         <v>8782</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5372,13 @@
         <v>73377</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H33" s="7">
         <v>75</v>
@@ -5399,13 +5387,13 @@
         <v>51712</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M33" s="7">
         <v>180</v>
@@ -5414,18 +5402,18 @@
         <v>125089</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5446,7 +5434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EFF3A9-5C7C-47C8-B69D-A8BEB484B9E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7695C545-7C19-42FD-9701-98339C0A1DE5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5463,7 +5451,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5591,7 +5579,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5621,13 +5609,13 @@
         <v>977</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5642,7 +5630,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5651,19 +5639,19 @@
         <v>977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -5672,13 +5660,13 @@
         <v>563</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5687,13 +5675,13 @@
         <v>1099</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5702,19 +5690,19 @@
         <v>1662</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -5723,13 +5711,13 @@
         <v>1047</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5744,7 +5732,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5753,13 +5741,13 @@
         <v>1047</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5762,13 @@
         <v>2587</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5789,13 +5777,13 @@
         <v>1099</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -5804,18 +5792,18 @@
         <v>3686</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5827,13 +5815,13 @@
         <v>817</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5848,7 +5836,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -5857,13 +5845,13 @@
         <v>817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,7 +5872,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5899,7 +5887,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5914,13 +5902,13 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7">
         <v>9</v>
@@ -5929,13 +5917,13 @@
         <v>6577</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -5944,13 +5932,13 @@
         <v>4634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -5959,19 +5947,19 @@
         <v>11212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -5986,7 +5974,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5995,13 +5983,13 @@
         <v>1262</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6010,13 +5998,13 @@
         <v>1262</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6019,13 @@
         <v>7394</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -6046,13 +6034,13 @@
         <v>5896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -6061,18 +6049,18 @@
         <v>13290</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6084,13 +6072,13 @@
         <v>1962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6105,7 +6093,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -6114,13 +6102,13 @@
         <v>1962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,7 +6129,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -6156,7 +6144,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -6177,7 +6165,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7">
         <v>13</v>
@@ -6186,13 +6174,13 @@
         <v>8494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -6201,13 +6189,13 @@
         <v>8955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -6216,19 +6204,19 @@
         <v>17449</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -6237,13 +6225,13 @@
         <v>626</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6258,7 +6246,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -6267,13 +6255,13 @@
         <v>626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>390</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6276,13 @@
         <v>11082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -6303,13 +6291,13 @@
         <v>8955</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -6318,18 +6306,18 @@
         <v>20037</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6341,13 +6329,13 @@
         <v>634</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6362,7 +6350,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6371,13 +6359,13 @@
         <v>634</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6380,13 @@
         <v>634</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6413,7 +6401,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6422,19 +6410,19 @@
         <v>634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
         <v>10</v>
@@ -6443,13 +6431,13 @@
         <v>6625</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -6458,13 +6446,13 @@
         <v>3986</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>240</v>
+        <v>396</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -6473,19 +6461,19 @@
         <v>10610</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -6500,7 +6488,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6509,13 +6497,13 @@
         <v>479</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -6524,13 +6512,13 @@
         <v>479</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6533,13 @@
         <v>7892</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -6560,13 +6548,13 @@
         <v>4465</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -6575,18 +6563,18 @@
         <v>12356</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6598,13 +6586,13 @@
         <v>2897</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -6613,13 +6601,13 @@
         <v>738</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -6628,13 +6616,13 @@
         <v>3635</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>23</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6637,13 @@
         <v>739</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6679,19 +6667,19 @@
         <v>739</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
         <v>11</v>
@@ -6700,13 +6688,13 @@
         <v>8133</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6715,13 +6703,13 @@
         <v>2216</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -6730,19 +6718,19 @@
         <v>10349</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -6757,7 +6745,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6787,7 +6775,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6790,13 @@
         <v>11769</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -6817,13 +6805,13 @@
         <v>2954</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -6832,13 +6820,13 @@
         <v>14723</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,13 +6843,13 @@
         <v>6309</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -6870,13 +6858,13 @@
         <v>738</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>219</v>
+        <v>426</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -6885,13 +6873,13 @@
         <v>7048</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>433</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6894,13 @@
         <v>2350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6927,7 +6915,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -6936,19 +6924,19 @@
         <v>2350</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7">
         <v>44</v>
@@ -6957,13 +6945,13 @@
         <v>30392</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H31" s="7">
         <v>32</v>
@@ -6972,13 +6960,13 @@
         <v>20890</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M31" s="7">
         <v>76</v>
@@ -6987,19 +6975,19 @@
         <v>51282</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
@@ -7008,13 +6996,13 @@
         <v>1673</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -7023,13 +7011,13 @@
         <v>1740</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>453</v>
+        <v>295</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -7038,13 +7026,13 @@
         <v>3413</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7047,13 @@
         <v>40724</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H33" s="7">
         <v>36</v>
@@ -7074,13 +7062,13 @@
         <v>23369</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M33" s="7">
         <v>94</v>
@@ -7089,18 +7077,18 @@
         <v>64093</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7121,7 +7109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACB75CB-8D90-42EA-B94C-BD9D772D0522}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F182EF3-1802-4F55-B4D3-B5C415E6B0F9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7138,7 +7126,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7243,13 +7231,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7264,7 +7252,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7279,7 +7267,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,13 +7280,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7307,13 +7295,13 @@
         <v>406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7322,32 +7310,32 @@
         <v>406</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7362,7 +7350,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7377,26 +7365,26 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7411,7 +7399,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -7426,7 +7414,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,13 +7427,13 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7454,13 +7442,13 @@
         <v>406</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7469,18 +7457,18 @@
         <v>406</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -7507,13 +7495,13 @@
         <v>656</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7522,13 +7510,13 @@
         <v>656</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,7 +7552,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7579,13 +7567,13 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7">
         <v>3</v>
@@ -7594,13 +7582,13 @@
         <v>1655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -7609,13 +7597,13 @@
         <v>2504</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -7624,19 +7612,19 @@
         <v>4159</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -7645,13 +7633,13 @@
         <v>589</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7666,7 +7654,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -7675,13 +7663,13 @@
         <v>590</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,13 +7684,13 @@
         <v>2244</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -7711,13 +7699,13 @@
         <v>3160</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -7726,18 +7714,18 @@
         <v>5404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7755,7 +7743,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>468</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -7764,13 +7752,13 @@
         <v>894</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7779,13 +7767,13 @@
         <v>894</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>475</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7788,13 @@
         <v>1403</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7821,7 +7809,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>294</v>
+        <v>468</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -7830,19 +7818,19 @@
         <v>1403</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>479</v>
+        <v>253</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>82</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7">
         <v>5</v>
@@ -7851,13 +7839,13 @@
         <v>4133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -7866,13 +7854,13 @@
         <v>3183</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -7881,19 +7869,19 @@
         <v>7316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -7908,7 +7896,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -7917,13 +7905,13 @@
         <v>597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -7932,13 +7920,13 @@
         <v>597</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7953,13 +7941,13 @@
         <v>5536</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -7968,13 +7956,13 @@
         <v>4674</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -7983,18 +7971,18 @@
         <v>10210</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8012,7 +8000,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -8021,13 +8009,13 @@
         <v>800</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>487</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -8036,13 +8024,13 @@
         <v>800</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8057,13 +8045,13 @@
         <v>906</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -8072,13 +8060,13 @@
         <v>847</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -8087,19 +8075,19 @@
         <v>1753</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
         <v>8</v>
@@ -8108,13 +8096,13 @@
         <v>6550</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -8123,13 +8111,13 @@
         <v>3695</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>362</v>
+        <v>498</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -8138,19 +8126,19 @@
         <v>10245</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>504</v>
+        <v>331</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -8165,7 +8153,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -8174,13 +8162,13 @@
         <v>1070</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -8189,13 +8177,13 @@
         <v>1070</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8210,13 +8198,13 @@
         <v>7456</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -8225,13 +8213,13 @@
         <v>6411</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -8240,18 +8228,18 @@
         <v>13867</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8263,13 +8251,13 @@
         <v>688</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8293,13 +8281,13 @@
         <v>688</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8320,7 +8308,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8350,13 +8338,13 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
         <v>8</v>
@@ -8365,13 +8353,13 @@
         <v>5970</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -8380,13 +8368,13 @@
         <v>2550</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -8395,19 +8383,19 @@
         <v>8520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -8416,13 +8404,13 @@
         <v>515</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -8446,13 +8434,13 @@
         <v>515</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8467,13 +8455,13 @@
         <v>7173</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -8482,13 +8470,13 @@
         <v>2550</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -8497,13 +8485,13 @@
         <v>9723</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8520,13 +8508,13 @@
         <v>688</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -8535,13 +8523,13 @@
         <v>2350</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -8550,13 +8538,13 @@
         <v>3038</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8571,13 +8559,13 @@
         <v>2309</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -8586,13 +8574,13 @@
         <v>1252</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -8601,19 +8589,19 @@
         <v>3561</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>534</v>
+        <v>341</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7">
         <v>24</v>
@@ -8622,13 +8610,13 @@
         <v>18308</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -8637,13 +8625,13 @@
         <v>11932</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -8652,19 +8640,19 @@
         <v>30240</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
@@ -8673,13 +8661,13 @@
         <v>1105</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -8688,13 +8676,13 @@
         <v>1667</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -8703,13 +8691,13 @@
         <v>2772</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8724,13 +8712,13 @@
         <v>22410</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -8739,13 +8727,13 @@
         <v>17201</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M33" s="7">
         <v>55</v>
@@ -8754,18 +8742,18 @@
         <v>39611</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
